--- a/data collection/get_stcok_name/stocth_names.xlsx
+++ b/data collection/get_stcok_name/stocth_names.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\Stock-quadrant-quantitative-analysis-using-deep-learning-classification\data collection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\Stock-quadrant-quantitative-analysis-using-deep-learning-classification\data collection\get_stcok_name\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28105C6-2A04-48B4-B4D2-20293F76097D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DD9748-14BE-435D-BC6B-DF571045423B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="924">
   <si>
     <t>หลักทรัพย์</t>
   </si>
@@ -2794,6 +2794,9 @@
   </si>
   <si>
     <t>ZIGA</t>
+  </si>
+  <si>
+    <t>TRUE</t>
   </si>
 </sst>
 </file>
@@ -2844,11 +2847,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -3131,8 +3135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A924"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A825" workbookViewId="0">
+      <selection activeCell="D841" sqref="D841"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7346,8 +7350,8 @@
       </c>
     </row>
     <row r="842" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A842" t="b">
-        <v>1</v>
+      <c r="A842" s="2" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="843" spans="1:1" x14ac:dyDescent="0.25">
@@ -7762,5 +7766,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>